--- a/sample_import_file/Node with classification.xlsx
+++ b/sample_import_file/Node with classification.xlsx
@@ -32,8 +32,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -64,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,466 +406,466 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>Node</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>NodeClass</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v>3 量子・スピン・トポロジカル・先端物性現象の実証・制御・応用</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="1" t="str">
         <v>研究目的</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" s="1" t="str">
         <v>2 デバイス・機能材料の設計・開発・動作・応用</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <v>研究目的</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" s="1" t="str">
         <v>1 新規材料・ナノ構造の合成・成長・構造制御・基礎物性の解明</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <v>研究目的</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5" s="1" t="str">
         <v>6 環境・安全性・リスク評価・サステナビリティ・規制・社会実装</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <v>研究目的</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6" s="1" t="str">
         <v>11 界面・表面・ナノスケール構造・ダイナミクスの可視化・制御・解析</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <v>研究目的</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7" s="1" t="str">
         <v>7 センシング・バイオセンシング・イメージング・計測技術の開発・応用</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <v>研究目的</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8" s="1" t="str">
         <v>5 ナノバイオ・ナノメディシン・ドラッグデリバリー・診断治療の設計・応用</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <v>研究目的</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="A9" s="1" t="str">
         <v>10 インフォマティクス・AI・データ科学・レビュー・社会・教育・人材等</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <v>研究目的</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
+      <c r="A10" s="1" t="str">
         <v>12 DNA/RNA/タンパク質等 生体分子・バイオ材料のナノスケール操作・計測・応用</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="1" t="str">
         <v>研究目的</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="A11" s="1" t="str">
         <v>4 触媒・電池・エネルギー材料・エネルギー変換技術の開発・性能向上</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <v>研究目的</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
+      <c r="A12" s="1" t="str">
         <v>8 理論・計算・機構解明・モデリング・記述子・基礎科学の深化</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <v>研究目的</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
+      <c r="A13" s="1" t="str">
         <v>9 自己組織化・自己集合・分子機械・ナノロボティクス・分子デバイスの設計と制御</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="1" t="str">
         <v>研究目的</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
+      <c r="A14" s="1" t="str">
         <v>6 リポソーム・LNP・バイオナノ材料</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="1" t="str">
         <v>対象材料</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
+      <c r="A15" s="1" t="str">
         <v>8 メモリ・電子デバイス・半導体素子</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="1" t="str">
         <v>対象材料</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
+      <c r="A16" s="1" t="str">
         <v>14 その他（複合材料・特殊構造体等）</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="1" t="str">
         <v>対象材料</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="A17" s="1" t="str">
         <v>9 バッテリー材料・電極・電解質</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="1" t="str">
         <v>対象材料</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
+      <c r="A18" s="1" t="str">
         <v>1 二次元材料・層状材料・グラフェン・TMDs関連</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="1" t="str">
         <v>対象材料</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
+      <c r="A19" s="1" t="str">
         <v>4 金属・合金・ナノ粒子・触媒材料</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="1" t="str">
         <v>対象材料</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
+      <c r="A20" s="1" t="str">
         <v>2 ペロブスカイト・量子ドット・ナノ結晶材料</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" s="1" t="str">
         <v>対象材料</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
+      <c r="A21" s="1" t="str">
         <v>3 カーボンナノ材料（CNT、カーボンドット等）</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="1" t="str">
         <v>対象材料</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
+      <c r="A22" s="1" t="str">
         <v>5 ポリマー・高分子・有機材料・有機半導体</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="1" t="str">
         <v>対象材料</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
+      <c r="A23" s="1" t="str">
         <v>11 セラミックス・酸化物・誘電体・光学材料</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23" s="1" t="str">
         <v>対象材料</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
+      <c r="A24" s="1" t="str">
         <v>7 DNAオリガミ・核酸ナノ構造・DNA/RNAデバイス</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="1" t="str">
         <v>対象材料</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
+      <c r="A25" s="1" t="str">
         <v>10 磁性材料・スピントロニクス・強磁性/反強磁性材料</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25" s="1" t="str">
         <v>対象材料</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
+      <c r="A26" s="1" t="str">
         <v>12 ナノメディシン・ドラッグデリバリー・バイオ応用</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" s="1" t="str">
         <v>対象材料</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
+      <c r="A27" s="1" t="str">
         <v>13 レビュー・データ・シミュレーション・社会系</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" s="1" t="str">
         <v>対象材料</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
+      <c r="A28" s="1" t="str">
         <v>7 ナノバイオ・医療・生体応用実験・評価</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B28" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
+      <c r="A29" s="1" t="str">
         <v>8 デバイス動作・システムレベル評価・応用</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
+      <c r="A30" s="1" t="str">
         <v>13 レビュー・総説・動向分析・社会データ</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
+      <c r="A31" s="1" t="str">
         <v>3 構造評価・表面分析・顕微鏡観察</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
+      <c r="A32" s="1" t="str">
         <v>9 化学反応・触媒・電気化学的評価</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
+      <c r="A33" s="1" t="str">
         <v>2 デバイス作製・パターニング・マイクロ/ナノファブリケーション</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
+      <c r="A34" s="1" t="str">
         <v>10 マルチモーダル・複合的解析・統合手法</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B34" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="str">
+      <c r="A35" s="1" t="str">
         <v>5 電気・電子・磁気・光学的測定</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B35" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
+      <c r="A36" s="1" t="str">
         <v>4 分光・物性評価・組成/化学分析</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
+      <c r="A37" s="1" t="str">
         <v>1 材料合成・薄膜形成</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="str">
+      <c r="A38" s="1" t="str">
         <v>11 ナノ粒子・ナノ構造評価と応用</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
+      <c r="A39" s="1" t="str">
         <v>12 DNA/RNA・分子ナノテク・バイオナノデバイス</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
+      <c r="A40" s="1" t="str">
         <v>14 マイクロ・ナノ流体・組織・細胞操作手法</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
+      <c r="A41" s="1" t="str">
         <v>6 シミュレーション・理論・データ駆動型手法</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="str">
+      <c r="A42" s="1" t="str">
         <v>15 その他（複合/特殊手法）</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42" s="1" t="str">
         <v>適用手法</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="str">
+      <c r="A43" s="1" t="str">
         <v>8 バイオ応答・治療効果・送達・安全性</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="str">
+      <c r="A44" s="1" t="str">
         <v>1 電気・電子・論理・量子デバイス性能</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="str">
+      <c r="A45" s="1" t="str">
         <v>10 計測技術・センシング・検出・イメージング</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="str">
+      <c r="A46" s="1" t="str">
         <v>4 材料の安定性・耐久性・分散・リサイクル性等</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="str">
+      <c r="A47" s="1" t="str">
         <v>5 化学反応性・触媒活性・電気化学特性</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B47" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="str">
+      <c r="A48" s="1" t="str">
         <v>6 発光・フォトニクス・スペクトル・非線形光学特性</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B48" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="str">
+      <c r="A49" s="1" t="str">
         <v>15 多機能・複合・システム・統合評価</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B49" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="str">
+      <c r="A50" s="1" t="str">
         <v>3 構造・組成・形態・界面・表面特性</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B50" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
+      <c r="A51" s="1" t="str">
         <v>2 磁気・スピン・フォトニック・集積化デバイス</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B51" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="str">
+      <c r="A52" s="1" t="str">
         <v>11 機械/熱/環境特性・耐久・リサイクル</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B52" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="str">
+      <c r="A53" s="1" t="str">
         <v>7 バンドギャップ・励起子・光キャリア等の物理パラメータ</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B53" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
+      <c r="A54" s="1" t="str">
         <v>9 ナノ粒子/ナノ構造・表面/界面・自己組織化</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
+      <c r="A55" s="1" t="str">
         <v>14 理論・モデル・シミュレーション</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B55" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
+      <c r="A56" s="1" t="str">
         <v>13 合成/プロセス/製造/スケーラビリティ等</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B56" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="str">
+      <c r="A57" s="1" t="str">
         <v>12 計算・情報処理・AI・量子情報</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B57" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
+      <c r="A58" s="1" t="str">
         <v>16 レビュー・社会・倫理・教育・歴史等</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B58" s="1" t="str">
         <v>評価方法</v>
       </c>
     </row>
